--- a/trunk/好用工具/選股.xlsx
+++ b/trunk/好用工具/選股.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9885" yWindow="330" windowWidth="15900" windowHeight="12345" activeTab="1"/>
+    <workbookView xWindow="9885" yWindow="330" windowWidth="15900" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="價值投資選股2014-11" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="1492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="1492">
   <si>
     <t>代號</t>
   </si>
@@ -4940,11 +4940,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O195"/>
+  <dimension ref="A1:O196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N195" sqref="N195:O195"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D199" sqref="D199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13453,6 +13453,53 @@
         <v>51.16</v>
       </c>
     </row>
+    <row r="196" spans="1:15" s="7" customFormat="1">
+      <c r="A196" s="6">
+        <v>1708</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C196" s="6">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D196" s="6">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="E196" s="6">
+        <v>12.01</v>
+      </c>
+      <c r="F196" s="6">
+        <v>11.51</v>
+      </c>
+      <c r="G196" s="6">
+        <v>11.77</v>
+      </c>
+      <c r="H196" s="6">
+        <v>24.42</v>
+      </c>
+      <c r="I196" s="6">
+        <v>22.3</v>
+      </c>
+      <c r="J196" s="6">
+        <v>2.56</v>
+      </c>
+      <c r="K196" s="6">
+        <v>2.75</v>
+      </c>
+      <c r="L196" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="M196" s="6">
+        <v>8.19</v>
+      </c>
+      <c r="N196" s="6">
+        <v>5.61</v>
+      </c>
+      <c r="O196" s="6">
+        <v>-3.58</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:O1">
     <sortState ref="A2:O195">
@@ -13463,9 +13510,10 @@
   <hyperlinks>
     <hyperlink ref="B14" r:id="rId1" display="http://tw.stock.yahoo.com/d/s/dividend_1580.html"/>
     <hyperlink ref="B15" r:id="rId2" display="http://tw.stock.yahoo.com/d/s/dividend_1582.html"/>
+    <hyperlink ref="B196" r:id="rId3" display="http://tw.stock.yahoo.com/d/s/dividend_1708.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -13473,9 +13521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O1478"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1446" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1470" sqref="N1470:O1470"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A169" sqref="A169:XFD169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
